--- a/MedPortalUSER.xlsx
+++ b/MedPortalUSER.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ComputerOne\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfaul\Desktop\MidTermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51AC367F-C5AA-4D02-AFCC-BCD8FB0E64FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36447465-BF91-45E6-8E28-2BACE7923544}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D398F37B-7186-4FB5-95AD-3309396F7C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>first</t>
   </si>
@@ -62,29 +57,145 @@
     <t>insurance</t>
   </si>
   <si>
-    <t>CC#</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>EXP DATE</t>
-  </si>
-  <si>
-    <t>CCV</t>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Aspden</t>
+  </si>
+  <si>
+    <t>Haspden</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>812-121-0912</t>
+  </si>
+  <si>
+    <t>Dr. Bailey</t>
+  </si>
+  <si>
+    <t>Blue Cross</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Radams</t>
+  </si>
+  <si>
+    <t>312-434-0091</t>
+  </si>
+  <si>
+    <t>Dr. Binder</t>
+  </si>
+  <si>
+    <t>Aetnea</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>MacNeil</t>
+  </si>
+  <si>
+    <t>Kmac</t>
+  </si>
+  <si>
+    <t>peanuts</t>
+  </si>
+  <si>
+    <t>757-323-1278</t>
+  </si>
+  <si>
+    <t>Dr. Mallove</t>
+  </si>
+  <si>
+    <t>Humana</t>
+  </si>
+  <si>
+    <t>Marinov</t>
+  </si>
+  <si>
+    <t>Smarinov</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>011-433-3770</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Meland</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Bmeland</t>
+  </si>
+  <si>
+    <t>503-388-1908</t>
+  </si>
+  <si>
+    <t>Dr. Miley</t>
+  </si>
+  <si>
+    <t>United</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Gleeson</t>
+  </si>
+  <si>
+    <t>Sgleeson</t>
+  </si>
+  <si>
+    <t>800-992-2131</t>
+  </si>
+  <si>
+    <t>Shiuji</t>
+  </si>
+  <si>
+    <t>Inomata</t>
+  </si>
+  <si>
+    <t>Sinomata</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>810-225-7205</t>
+  </si>
+  <si>
+    <t>Dr. Hurtak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +233,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,15 +555,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E6B66-C07B-4AA5-9FFF-D0699BF79DB2}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,17 +601,215 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="E2">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2">
+        <v>26523</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2">
+        <v>31416</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19179</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>34869</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>28987</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>33044</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16035</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/MedPortalUSER.xlsx
+++ b/MedPortalUSER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfaul\Desktop\MidTermProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\MidTermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{36447465-BF91-45E6-8E28-2BACE7923544}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9BB5B859-687B-41A2-A77D-D0B9356886FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D398F37B-7186-4FB5-95AD-3309396F7C60}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" xr2:uid="{D398F37B-7186-4FB5-95AD-3309396F7C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>first</t>
   </si>
@@ -129,55 +129,7 @@
     <t>011-433-3770</t>
   </si>
   <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>Meland</t>
-  </si>
-  <si>
     <t>Stefan</t>
-  </si>
-  <si>
-    <t>Bmeland</t>
-  </si>
-  <si>
-    <t>503-388-1908</t>
-  </si>
-  <si>
-    <t>Dr. Miley</t>
-  </si>
-  <si>
-    <t>United</t>
-  </si>
-  <si>
-    <t>Stan</t>
-  </si>
-  <si>
-    <t>Gleeson</t>
-  </si>
-  <si>
-    <t>Sgleeson</t>
-  </si>
-  <si>
-    <t>800-992-2131</t>
-  </si>
-  <si>
-    <t>Shiuji</t>
-  </si>
-  <si>
-    <t>Inomata</t>
-  </si>
-  <si>
-    <t>Sinomata</t>
-  </si>
-  <si>
-    <t>dairy</t>
-  </si>
-  <si>
-    <t>810-225-7205</t>
-  </si>
-  <si>
-    <t>Dr. Hurtak</t>
   </si>
 </sst>
 </file>
@@ -557,17 +509,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E6B66-C07B-4AA5-9FFF-D0699BF79DB2}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -698,7 +650,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -726,91 +678,15 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2">
-        <v>28987</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2">
-        <v>33044</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2">
-        <v>16035</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
